--- a/loaded_influencer_data/athomewithlil/athomewithlil_video.xlsx
+++ b/loaded_influencer_data/athomewithlil/athomewithlil_video.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7550</v>
+        <v>7570</v>
       </c>
       <c r="C2" t="n">
         <v>151</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.132450331125828</v>
+        <v>2.126816380449141</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1.994715984147952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1324503311258278</v>
+        <v>0.1321003963011889</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2649006622516556</v>
+        <v>0.2642007926023778</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="C3" t="n">
         <v>120</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9328358208955223</v>
+        <v>0.9259259259259258</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8955223880597015</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0373134328358209</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2985074626865672</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         <v>20100</v>
       </c>
       <c r="C4" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.039800995024876</v>
+        <v>1.049751243781095</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9552238805970149</v>
+        <v>0.9651741293532338</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C5" t="n">
         <v>37</v>
@@ -688,19 +688,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.86089238845145</v>
+        <v>12.46819338422392</v>
       </c>
       <c r="I5" t="n">
-        <v>9.711286089238845</v>
+        <v>9.414758269720101</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.149606299212598</v>
+        <v>3.053435114503817</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5249343832020997</v>
+        <v>0.5089058524173028</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n">
         <v>47</v>
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27.92079207920792</v>
+        <v>27.36030828516378</v>
       </c>
       <c r="I6" t="n">
-        <v>18.61386138613861</v>
+        <v>18.30443159922929</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>9.306930693069306</v>
+        <v>9.055876685934489</v>
       </c>
       <c r="L6" t="n">
-        <v>1.386138613861386</v>
+        <v>1.348747591522158</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="C7" t="n">
         <v>66</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11.05263157894737</v>
+        <v>10.83870967741935</v>
       </c>
       <c r="I7" t="n">
-        <v>8.684210526315789</v>
+        <v>8.516129032258064</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.368421052631579</v>
+        <v>2.32258064516129</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -818,19 +818,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="C8" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -838,26 +838,26 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13.37278106508876</v>
+        <v>9.801633605600934</v>
       </c>
       <c r="I8" t="n">
-        <v>11.36094674556213</v>
+        <v>7.701283547257877</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.011834319526627</v>
+        <v>2.100350058343057</v>
       </c>
       <c r="L8" t="n">
-        <v>3.195266272189349</v>
+        <v>0.2333722287047841</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
     </row>
@@ -868,46 +868,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>How are you finding editing and narrowing down your filming to the best possible quality. I feel bad for my storage!!! I wonder how long to keep all footage or to delete as I go?</t>
+          <t>UGC journey is fresh but I’m leaning along the way.. let me know what tips you have learned along the way 🩷🙏</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>17.52336448598131</v>
+        <v>26.32794457274827</v>
       </c>
       <c r="I9" t="n">
-        <v>14.7196261682243</v>
+        <v>22.40184757505774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.803738317757009</v>
+        <v>3.926096997690531</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.235565819861432</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
     </row>
@@ -918,46 +918,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>UGC example.. cloudbox jewellery.. personalised is always better. The meaning behind the pieces you wear is so special. A beautiful gift for someone you love or for yourself.. it is the season of love ❤️</t>
+          <t>How are you finding editing and narrowing down your filming to the best possible quality. I feel bad for my storage!!! I wonder how long to keep all footage or to delete as I go?</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>11.24744376278119</v>
+        <v>14.5631067961165</v>
       </c>
       <c r="I10" t="n">
-        <v>8.588957055214724</v>
+        <v>12.23300970873786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.658486707566462</v>
+        <v>2.330097087378641</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2044989775051125</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
